--- a/data/Crime_In_US_By_Region/Crime_In_US_By_Region_2018.xlsx
+++ b/data/Crime_In_US_By_Region/Crime_In_US_By_Region_2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E7C90-A3F2-934D-8AAF-2DAD4D97E3B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4755FA5E-30C7-0743-93D6-B756DFAE6718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,40 +78,40 @@
     <t>Rape</t>
   </si>
   <si>
+    <t>Rape Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Murder and nonnegligent manslaughter Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Robbery Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Aggravated assault Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Burglary Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Larceny-theft Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Motor vehicle theft Rate per 100,000</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>West North Central</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
     <t>Murder and nonnegligent manslaughter</t>
-  </si>
-  <si>
-    <t>Rape Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Murder and nonnegligent manslaughter Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Robbery Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Aggravated assault Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Burglary Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Larceny-theft Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Motor vehicle theft Rate per 100,000</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>West North Central</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>South Atlantic</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -603,46 +603,46 @@
         <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>1</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9">
         <v>2018</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="9">
         <v>2018</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="8" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="9">
         <v>2018</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="9" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9">
         <v>2018</v>

--- a/data/Crime_In_US_By_Region/Crime_In_US_By_Region_2018.xlsx
+++ b/data/Crime_In_US_By_Region/Crime_In_US_By_Region_2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4755FA5E-30C7-0743-93D6-B756DFAE6718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C542441B-1A50-C041-8F5B-32B8E0C66C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
